--- a/xlsx/_baidu_克罗地亚_intext.xlsx
+++ b/xlsx/_baidu_克罗地亚_intext.xlsx
@@ -1404,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
